--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44585</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45603</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45505</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45188</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44266</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45660</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45078</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45196</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44312</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45106</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44246</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44673</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44364</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44846</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44466</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44392</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44515</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44652</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44237</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44588</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44257</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44782</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44500</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44743</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44585</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44257</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45429</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44966</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44966</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44543</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45660</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44543</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44266</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45504</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44543</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45106</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44665</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45642</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45805</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45805</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45364</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45461</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44258</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44635</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44480</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44268</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44858</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>45302</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45805</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44995</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44312</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45915</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44809</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45915</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45783</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45915</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45915</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>45915</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45098</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>45537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45181</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45937</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45180</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44817</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45461</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44298</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45104</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45860</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45196</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45525</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45462</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45467</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45400</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44596</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45219</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45874</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45242</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45196</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45604</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45876</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45364</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45016</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45611</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45611</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45980</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45980</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45980</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45980</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45981</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44595</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>45868</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45593</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45939</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44417</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45705</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45356</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44322</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44671</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45196</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44377</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45219</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>45992</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>45992</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45635</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44581</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45631</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>44480</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44650</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45183</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>45638</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45042</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>45391</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45474</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45308</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45411</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45724</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44746</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45918</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>46048</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>46057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45607</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>45441</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45077</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44441.43959490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>45582</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>45582</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45170</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45545</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45107</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45219</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45335</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>44685</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44427</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44650</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45238</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44844</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44580</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45242</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45114</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44417</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44867</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44972</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45702</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44748</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45761</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44966</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44295</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>44480</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44998</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44998</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45258</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45400</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45397</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44585</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45603</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45505</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45725</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45188</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44266</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45660</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45078</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45196</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44312</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45106</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44246</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>44673</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44732</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44364</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44846</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44466</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44392</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44515</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44652</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44237</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44466</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44588</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44257</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44782</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44500</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44851</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44860</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44743</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44279</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44580</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44585</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44257</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45429</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44601</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44966</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44966</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44543</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45660</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44543</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44266</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45504</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44543</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45106</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44665</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>44867</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45642</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45805</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45805</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45364</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45461</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44258</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44635</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44480</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45419</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44268</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44858</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>45302</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45747</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45805</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44995</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44312</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45915</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44809</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45915</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45783</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45915</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45915</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45915</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>45915</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45098</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>45537</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45181</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45937</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45180</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44817</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45461</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44298</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45239</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45104</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45860</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45196</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45525</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45462</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45467</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45400</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44596</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45219</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45874</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45242</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45196</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45604</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45876</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45183</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45364</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45016</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45611</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45611</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45980</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45980</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45980</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45980</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45981</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44595</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>45868</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45593</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45939</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22779,7 +22779,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44417</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>45593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45705</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45356</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44322</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44671</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45196</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44377</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45219</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>45992</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>45992</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45635</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44581</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45631</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>44480</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44650</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45183</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>45638</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45042</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>45391</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44867</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45474</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45308</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45411</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45724</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44746</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45918</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>46048</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>46057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45607</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>45441</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45077</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44441.43959490741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>45582</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>45582</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45170</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45496</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45545</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45107</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45219</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45335</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>44685</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44427</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44650</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45238</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45497</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44844</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44580</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45242</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45114</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44417</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44867</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44972</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45702</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44748</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45761</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44966</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45013</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44295</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>44480</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44998</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>44998</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>45258</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45400</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45397</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44585</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45603</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>44420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45188</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44266</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45660</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45078</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45196</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44312</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45106</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44673</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44732</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44846</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44466</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44392</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44652</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44515</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44257</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44500</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44851</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44679</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44743</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44279</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44580</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44585</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44257</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45429</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44966</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44966</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45660</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44601</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44817</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44266</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45504</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45106</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45642</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44867</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45461</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44258</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44268</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44858</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45302</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45747</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44995</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44312</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44809</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45098</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45783</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>45915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45915</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45915</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45915</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>45915</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45860</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45196</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>45525</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>45462</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>45467</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45400</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44817</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>45461</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44298</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45181</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45876</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45239</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45937</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45219</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45242</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45016</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45196</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45604</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45611</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45611</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44595</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>45980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45980</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45868</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44417</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>45593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45939</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45705</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>45356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44322</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44671</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45952</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44377</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45219</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44581</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45635</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>45992</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>45992</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44480</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45631</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>44650</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45453</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45042</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45391</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>44867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45183</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45474</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45724</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44746</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>45918</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45441</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>46063.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>46069.41846064815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>46069.61508101852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>46069.53618055556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>46057</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>46069.64003472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>46069.55265046296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45607</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45411</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45582</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45582</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>46066.55392361111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45170</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>45496</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>46071.65601851852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45545</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>45107</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>46048</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45219</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>46073.47048611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>46073.47011574074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>46073.46987268519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>46072.65678240741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>46072.65697916667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>45335</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44685</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>45014</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44427</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44650</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45238</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>44844</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>44580</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45049</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>45242</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45114</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44417</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44867</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>44972</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45702</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44748</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45761</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44966</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45013</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44480</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44998</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44998</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45258</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45400</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45397</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>45805</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45805</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44585</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45603</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45098</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45881</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         <v>44420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45188</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44266</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44650</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45044</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45660</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>45859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45078</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45196</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44312</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45442</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45106</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45602</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44673</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44732</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44846</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44466</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44392</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44652</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44515</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44257</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44500</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44851</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44679</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44743</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44279</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44580</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44585</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44257</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45429</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45308</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44966</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44966</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45660</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44601</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44817</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44266</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45504</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44543</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45106</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44665</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45642</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44867</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45461</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44258</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44480</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>44268</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>44858</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45805</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45302</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45747</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44995</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44312</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44809</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45098</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45783</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>45915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>45915</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45915</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45915</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>45915</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>45537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45860</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45196</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>45525</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>45462</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>45467</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45400</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44817</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>45461</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44298</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45181</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45876</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45239</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45104</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45937</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45219</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45242</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45016</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45196</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45604</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45183</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45611</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45611</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>44481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44595</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>45980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45980</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45980</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45981</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45868</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44417</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>45593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45939</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45705</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>45356</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44322</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44671</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>45952</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44377</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45219</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44581</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45635</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>45992</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>45992</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44480</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45631</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>44650</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45453</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45042</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45391</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>44867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45183</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45474</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45724</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44746</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>45918</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45441</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>46063.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>46069.41846064815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>46069.61508101852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>46069.53618055556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>46057</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>46069.64003472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>46069.55265046296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45607</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45411</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45582</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45582</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>46066.55392361111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45170</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>45496</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>46071.65601851852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45545</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>45107</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>46048</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45219</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>46073.47048611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>46073.47011574074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>46073.46987268519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>46072.65678240741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>46072.65697916667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>45335</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44685</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>45014</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>44427</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>44845</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44650</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45238</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>44844</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>44580</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45049</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>45242</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45114</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44417</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44867</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>44972</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45702</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44748</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45761</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44966</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45013</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44295</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44480</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>44998</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44998</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44998</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45258</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45400</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45397</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>45805</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45805</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45635</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44585</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45603</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45881</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45098</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45441</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45398</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44585</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45725</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45188</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44650</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44266</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44312</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45660</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45078</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45044</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44673</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44732</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44846</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44466</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44392</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44515</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44652</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44257</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44500</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44851</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44679</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44743</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44279</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44585</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44257</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44377</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44298</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45042</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45429</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45441</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45702</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45419</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45453</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>44581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44543</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44966</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44595</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44867</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45805</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45504</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45013</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45496</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44671</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45805</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44268</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44746</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45582</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45238</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44966</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45582</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44480</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44480</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45783</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45461</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45642</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45915</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45915</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45915</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45915</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45915</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45915</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45915</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45915</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45114</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45525</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45196</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>44322</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45400</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45467</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45462</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>44295</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44258</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45170</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45876</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45181</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>44867</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45474</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44601</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45016</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44596</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44809</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>45107</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45308</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45104</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45183</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45611</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45604</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45196</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45611</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45461</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44480</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45980</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45980</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45980</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45981</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45868</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45939</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44580</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45952</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45308</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45219</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45219</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45631</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>45196</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45635</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>44650</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45183</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44685</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45638</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45180</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44417</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45918</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44844</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44845</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>46063.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44748</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>46066.55392361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>45607</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45014</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45411</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>46069.64003472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45356</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>46069.61508101852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46069.41846064815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>46069.55265046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>46069.53618055556</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>46071.65601851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>46072.65678240741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>46072.65697916667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44844</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>46073.47011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>46073.47048611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>46073.46987268519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45391</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44867</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>46048</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44650</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>46057</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>46079.56912037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45992</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44665</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44966</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>44858</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44817</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45242</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45545</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45077</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45660</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45106</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45364</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>45364</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45242</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44817</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45593</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44312</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45705</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44543</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45497</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>44972</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>44998</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44998</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45258</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45400</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45397</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>

--- a/Översikt STORUMAN.xlsx
+++ b/Översikt STORUMAN.xlsx
@@ -575,7 +575,7 @@
         <v>45923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>45215</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45870</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>45413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44515</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45078</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>44904</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>45635</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44585</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44995</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45873</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44435</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45603</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44995</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44451</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44451.47785879629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45233</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45016</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44585</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44995</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44543</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45881</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45098</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45441</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>45398</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44585</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>45714</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45055</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45975.32414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45870.455625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>45505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45520.65300925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45604</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>45474.62412037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45874.4699537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45690.38700231481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45725</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45188</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>45979.6204050926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44361.4578125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44421</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45896.36488425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44650</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45986.58333333334</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44266</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45793.65607638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44698.55512731482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>44430</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45411</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44312</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>45453.64537037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45106</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44581</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45660</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45842.56947916667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45078</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45923.50239583333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45873.49789351852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45958.66072916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45520.63962962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45561.43266203703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>45993.41291666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45602</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>46058.5600462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45252.8006712963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45044</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44950</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45576.57828703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44273</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44270</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44392</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44663</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44257</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>44273</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>44698.55778935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>44719.92506944444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>44846.3721875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44364</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44473.94219907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44673</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44732</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44364</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44846</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44466</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>44392</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44515</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44652</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44466</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>44588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>44473.94251157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44257</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>44782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44500</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44886.6896412037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44846.36170138889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44851</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44473.94260416667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44679</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>44743</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>44279</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44585</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>44257</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45719.36620370371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45219</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>44377</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>44298</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45042</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45429</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45441</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45702</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45419</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45397.92915509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45453</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>45467.68030092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45098</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45474.61884259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>44581</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>44543</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44966</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44595</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45537</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44917.60903935185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>45539.59653935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44867</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45805</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45810.47646990741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45888.52721064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45810.56736111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45810.56498842593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>45561.44042824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45810.50392361111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45504</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45294.93322916667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45572.34314814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45884.85496527778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45013</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>45531.37258101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45680.64877314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>45496</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45890.85729166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>45724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44671</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45805</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45896.65391203704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45761</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45898.50357638889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45898.49674768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>45898.49034722222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45898.47530092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45825.69819444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45898.47844907407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45898.48869212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45898.49275462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45903.33118055556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45903.57320601852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>45555.39041666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44268</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44746</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45908.46921296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45835.57523148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45835.57872685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45839.66170138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45609.64550925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45582</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45910.53175925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45238</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45842.5657175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44966</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45582</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44995</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44480</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44480</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45783</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45461</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45642</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45852.47277777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45852.49337962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45915</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45915</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45852.45567129629</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45915</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45915</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45915</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45915</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45915</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45856.3653125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45860</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45915</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45114</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45860.57265046296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45525</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45196</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45918.63601851852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45863.4765162037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45917.57884259259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45863.46831018518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45572.35674768518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45919.61527777778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>44322</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45400</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45467</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45462</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45923.50300925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45926.41188657407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45926.37020833333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45926.39805555555</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>44295</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45926.38789351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44258</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45726.38585648148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45874.59280092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45929.3687037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45929.68402777778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44427</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45170</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45874.60371527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45874.33908564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45874.53983796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45874</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45876</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45875.28846064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45181</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45938.69032407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45939.66736111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>44867</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44417</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>45939.65523148148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>45168.93827546296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45474</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>45940.36510416667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44601</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45944.40949074074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45943.47863425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45049</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45520.59993055555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45520.64584490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45943.47158564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45943.45949074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45943.46447916667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45016</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44451.45726851852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45946.37640046296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44596</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45635.90383101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45946.36891203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44809</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45946.37814814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>45946.36190972223</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>45947.4275462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45947.40744212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44904.65288194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>45107</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45308</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45561.43010416667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45953.4275</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45104</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45183</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45611</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45604</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>45196</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45966.45277777778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45611</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>45520.55659722222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45520.62395833333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45968.59909722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45968.62826388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45968.60237268519</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45335</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44543.64056712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45968.44407407408</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45971.42773148148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45971.60607638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45461</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>45561.43890046296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44480</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45980</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45980</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45980</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45980.46651620371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45979.46946759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>45979.62174768518</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45981</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45985.36025462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45985.41994212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>45985.36491898148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45868</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45989.40489583334</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45178.40459490741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>45939</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45993.42373842592</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45993.41787037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>45993.4018287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44580</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45994.83516203704</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45952</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45994.78555555556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>46000.62106481481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45308</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>46000.61475694444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45219</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>46000.62729166666</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>46000.60853009259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45219</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>45999.61329861111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>45999.61577546296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45635</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>45609.60005787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>46042.67149305555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45631</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>45196</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45635</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>46002.43112268519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>44650</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>46002.55287037037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44748.92878472222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44648.92366898148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45561.42701388889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>45183</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>46008.63922453704</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44685</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45638</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>45180</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45155.48350694445</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44904.92574074074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44417</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>46058.56734953704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45918</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44844</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44845</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>46063.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44748</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>46066.55392361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45302</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>45607</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45014</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45246.9253587963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45411</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>46069.64003472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45356</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>46069.61508101852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46069.41846064815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>46069.55265046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>46069.53618055556</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>46071.65601851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>46072.65678240741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>46072.65697916667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44844</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>45520.54680555555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>45522.50731481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>46034.69822916666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>46073.47011574074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>46073.47048611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>46073.46987268519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>46034.6775462963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>46034.69831018519</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45391</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44776.51278935185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>45553.91163194444</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44867</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>46048</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45561.39728009259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>46036.48923611111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44650</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>46057</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>46079.56912037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45586.45775462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45992</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45992</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45558.59092592593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44665</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44966</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>44858</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45239</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44817</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45242</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45545</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>45077</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45660</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45461.92976851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45106</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45364</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>45364</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45520.6030787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
         <v>44904.57640046296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45242</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45271.37019675926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45260.9266087963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44817</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45593</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44312</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45705</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45492.96185185185</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>44712.92430555556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44543</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45551.33335648148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45497</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45569.57216435186</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>44972</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>44998</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>44998</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44998</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>44393.48011574074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45258</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45400</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45397</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45558.36774305555</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45565.39368055556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45804.3993287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
